--- a/data/trans_orig/P05A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>232226</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>207968</v>
+        <v>209388</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>258014</v>
+        <v>258149</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3346140816710551</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2996606706235819</v>
+        <v>0.3017061231362642</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3717722109334966</v>
+        <v>0.3719668689219045</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>259</v>
@@ -765,19 +765,19 @@
         <v>257950</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>232990</v>
+        <v>233164</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>283866</v>
+        <v>283202</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3747368116223872</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3384751853504585</v>
+        <v>0.3387283281932677</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4123850469690144</v>
+        <v>0.4114214753430578</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>488</v>
@@ -786,19 +786,19 @@
         <v>490177</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>455129</v>
+        <v>454810</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>523993</v>
+        <v>525229</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3545932907160455</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.329240090975455</v>
+        <v>0.3290091791075015</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3790557937098099</v>
+        <v>0.3799499830528702</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>461786</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>435998</v>
+        <v>435863</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>486044</v>
+        <v>484624</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6653859183289449</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6282277890665035</v>
+        <v>0.6280331310780957</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7003393293764183</v>
+        <v>0.6982938768637359</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>437</v>
@@ -836,19 +836,19 @@
         <v>430401</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>404485</v>
+        <v>405149</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>455361</v>
+        <v>455187</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6252631883776127</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5876149530309855</v>
+        <v>0.5885785246569423</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6615248146495416</v>
+        <v>0.6612716718067325</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>891</v>
@@ -857,19 +857,19 @@
         <v>892186</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>858370</v>
+        <v>857134</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>927234</v>
+        <v>927553</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6454067092839545</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6209442062901901</v>
+        <v>0.6200500169471297</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.670759909024545</v>
+        <v>0.6709908208924983</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>285631</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>255006</v>
+        <v>258073</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>314815</v>
+        <v>316857</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2969750221381314</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2651344751774826</v>
+        <v>0.2683225945504246</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3273183582267698</v>
+        <v>0.3294418103915288</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>327</v>
@@ -982,19 +982,19 @@
         <v>351569</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>320953</v>
+        <v>321772</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>382018</v>
+        <v>379110</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3630437712274259</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3314281737573361</v>
+        <v>0.3322741862210938</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3944861993895578</v>
+        <v>0.3914833014850321</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>587</v>
@@ -1003,19 +1003,19 @@
         <v>637200</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>595789</v>
+        <v>594916</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>681209</v>
+        <v>680842</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3301222337777752</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3086679593476568</v>
+        <v>0.3082157060902706</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3529228006987665</v>
+        <v>0.352732778807582</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>676169</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>646985</v>
+        <v>644943</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>706794</v>
+        <v>703727</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7030249778618686</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6726816417732304</v>
+        <v>0.6705581896084712</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7348655248225175</v>
+        <v>0.7316774054495755</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>581</v>
@@ -1053,19 +1053,19 @@
         <v>616824</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>586375</v>
+        <v>589283</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>647440</v>
+        <v>646621</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6369562287725741</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6055138006104422</v>
+        <v>0.6085166985149679</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6685718262426639</v>
+        <v>0.6677258137789061</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1217</v>
@@ -1074,19 +1074,19 @@
         <v>1292993</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1248984</v>
+        <v>1249351</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1334404</v>
+        <v>1335277</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6698777662222247</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6470771993012336</v>
+        <v>0.6472672211924183</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6913320406523432</v>
+        <v>0.6917842939097302</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>190551</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>168037</v>
+        <v>166521</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>213790</v>
+        <v>215704</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2808381160580617</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2476563587125147</v>
+        <v>0.245422326296993</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3150880703736019</v>
+        <v>0.3179093434306508</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>195</v>
@@ -1199,19 +1199,19 @@
         <v>188988</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>166961</v>
+        <v>166110</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>210240</v>
+        <v>212324</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2763629055900956</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2441514906790362</v>
+        <v>0.2429074232986106</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3074403111203839</v>
+        <v>0.3104870016085282</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>373</v>
@@ -1220,19 +1220,19 @@
         <v>379539</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>348022</v>
+        <v>346395</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>413309</v>
+        <v>409723</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2785917530285729</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2554572293215525</v>
+        <v>0.2542626166928875</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3033794207138499</v>
+        <v>0.3007470093972743</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>487958</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>464719</v>
+        <v>462805</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>510472</v>
+        <v>511988</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7191618839419383</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6849119296263981</v>
+        <v>0.6820906565693491</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7523436412874853</v>
+        <v>0.754577673703007</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>501</v>
@@ -1270,19 +1270,19 @@
         <v>494853</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>473601</v>
+        <v>471517</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>516880</v>
+        <v>517731</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7236370944099044</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6925596888796161</v>
+        <v>0.6895129983914721</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7558485093209638</v>
+        <v>0.7570925767013894</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>964</v>
@@ -1291,19 +1291,19 @@
         <v>982811</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>949041</v>
+        <v>952627</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1014328</v>
+        <v>1015955</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7214082469714271</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6966205792861501</v>
+        <v>0.6992529906027258</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7445427706784475</v>
+        <v>0.7457373833071128</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>258970</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>231922</v>
+        <v>232149</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>286047</v>
+        <v>286242</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2748507810391728</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2461433446112404</v>
+        <v>0.2463849381831205</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3035878608186932</v>
+        <v>0.3037943843784945</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>348</v>
@@ -1416,19 +1416,19 @@
         <v>364183</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>333199</v>
+        <v>333540</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>393914</v>
+        <v>395607</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3506436953979763</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3208117963752641</v>
+        <v>0.3211402067705568</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3792695325040443</v>
+        <v>0.3808993205428983</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>620</v>
@@ -1437,19 +1437,19 @@
         <v>623153</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>581892</v>
+        <v>580997</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>665432</v>
+        <v>663335</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3145913280222782</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.293761239655388</v>
+        <v>0.2933092261151596</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.335935098679446</v>
+        <v>0.3348768051575735</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>683252</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>656175</v>
+        <v>655980</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>710300</v>
+        <v>710073</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7251492189608273</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6964121391813068</v>
+        <v>0.6962056156215051</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7538566553887597</v>
+        <v>0.7536150618168791</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>649</v>
@@ -1487,19 +1487,19 @@
         <v>674429</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>644698</v>
+        <v>643005</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>705413</v>
+        <v>705072</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6493563046020238</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.620730467495956</v>
+        <v>0.6191006794571017</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6791882036247359</v>
+        <v>0.6788597932294431</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1371</v>
@@ -1508,19 +1508,19 @@
         <v>1357681</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1315402</v>
+        <v>1317499</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1398942</v>
+        <v>1399837</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6854086719777217</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6640649013205541</v>
+        <v>0.665123194842427</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7062387603446121</v>
+        <v>0.7066907738848405</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>967378</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>919850</v>
+        <v>920691</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1018650</v>
+        <v>1024420</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2952436177848578</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.280737893077274</v>
+        <v>0.2809946008227046</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3108917787262384</v>
+        <v>0.3126527666479297</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1129</v>
@@ -1633,19 +1633,19 @@
         <v>1162691</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1102129</v>
+        <v>1106220</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1214945</v>
+        <v>1219746</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3440730259216244</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3261511653591103</v>
+        <v>0.3273618084042295</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3595365054260688</v>
+        <v>0.3609574382287812</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2068</v>
@@ -1654,19 +1654,19 @@
         <v>2130069</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2053923</v>
+        <v>2054348</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2203949</v>
+        <v>2205759</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3200348790026891</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3085942606506412</v>
+        <v>0.3086580730625506</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3311349645034042</v>
+        <v>0.3314070318207269</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2309165</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2257893</v>
+        <v>2252123</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2356693</v>
+        <v>2355852</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7047563822151421</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6891082212737616</v>
+        <v>0.6873472333520709</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7192621069227259</v>
+        <v>0.7190053991772958</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2168</v>
@@ -1704,19 +1704,19 @@
         <v>2216506</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2164252</v>
+        <v>2159451</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2277068</v>
+        <v>2272977</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6559269740783755</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6404634945739313</v>
+        <v>0.6390425617712188</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6738488346408897</v>
+        <v>0.6726381915957704</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4443</v>
@@ -1725,19 +1725,19 @@
         <v>4525672</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4451792</v>
+        <v>4449982</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4601818</v>
+        <v>4601393</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6799651209973109</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6688650354965957</v>
+        <v>0.6685929681792731</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6914057393493588</v>
+        <v>0.6913419269374494</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>272569</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>245552</v>
+        <v>247228</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>298509</v>
+        <v>299648</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3887178165493921</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3501889380506869</v>
+        <v>0.352578703841495</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4257121039395448</v>
+        <v>0.4273363605882505</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>247</v>
@@ -2090,19 +2090,19 @@
         <v>264308</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>239182</v>
+        <v>238288</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>290661</v>
+        <v>291760</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3801182697446336</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3439825519024109</v>
+        <v>0.3426975611081848</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4180187227937388</v>
+        <v>0.4195980595991614</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>511</v>
@@ -2111,19 +2111,19 @@
         <v>536877</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>502963</v>
+        <v>500231</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>575277</v>
+        <v>573682</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3844361104488397</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3601522617487424</v>
+        <v>0.3581956300083842</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4119334811423782</v>
+        <v>0.4107911528897117</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>428630</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>402690</v>
+        <v>401551</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>455647</v>
+        <v>453971</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6112821834506079</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5742878960604553</v>
+        <v>0.5726636394117496</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.649811061949313</v>
+        <v>0.647421296158505</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>402</v>
@@ -2161,19 +2161,19 @@
         <v>431023</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>404670</v>
+        <v>403571</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>456149</v>
+        <v>457043</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6198817302553664</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5819812772062614</v>
+        <v>0.5804019404008387</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6560174480975891</v>
+        <v>0.6573024388918153</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>810</v>
@@ -2182,19 +2182,19 @@
         <v>859653</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>821253</v>
+        <v>822848</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>893567</v>
+        <v>896299</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6155638895511603</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5880665188576217</v>
+        <v>0.5892088471102886</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6398477382512573</v>
+        <v>0.6418043699916158</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>321278</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>290710</v>
+        <v>290351</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>354120</v>
+        <v>352117</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3165912958881004</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2864695929189863</v>
+        <v>0.2861155678825159</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3489549110628545</v>
+        <v>0.3469804853677514</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>302</v>
@@ -2307,19 +2307,19 @@
         <v>330924</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>299554</v>
+        <v>299126</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>361024</v>
+        <v>362095</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3212639941729389</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2908100796458722</v>
+        <v>0.2903945709455225</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3504852822730186</v>
+        <v>0.3515247107994668</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>595</v>
@@ -2328,19 +2328,19 @@
         <v>652202</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>606477</v>
+        <v>605800</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>695708</v>
+        <v>689185</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3189450867050276</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2965842471820416</v>
+        <v>0.2962532246461204</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3402208521949305</v>
+        <v>0.3370309399009009</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>693525</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>660683</v>
+        <v>662686</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>724093</v>
+        <v>724452</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6834087041118996</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6510450889371455</v>
+        <v>0.6530195146322486</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7135304070810138</v>
+        <v>0.7138844321174844</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>636</v>
@@ -2378,19 +2378,19 @@
         <v>699145</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>669045</v>
+        <v>667974</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>730515</v>
+        <v>730943</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6787360058270612</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6495147177269815</v>
+        <v>0.6484752892005338</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7091899203541283</v>
+        <v>0.7096054290544775</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1276</v>
@@ -2399,19 +2399,19 @@
         <v>1392670</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1349164</v>
+        <v>1355687</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1438395</v>
+        <v>1439072</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6810549132949724</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6597791478050696</v>
+        <v>0.6629690600990991</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7034157528179588</v>
+        <v>0.7037467753538795</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>291843</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>261253</v>
+        <v>264304</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>317869</v>
+        <v>320762</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3852088789017592</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3448325080704414</v>
+        <v>0.3488600922965074</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4195607725316697</v>
+        <v>0.4233790522816165</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>279</v>
@@ -2524,19 +2524,19 @@
         <v>311764</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>286781</v>
+        <v>283475</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>342897</v>
+        <v>337120</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4016993928109002</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3695090898909405</v>
+        <v>0.3652493268495472</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4418126347701553</v>
+        <v>0.4343692573622494</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>541</v>
@@ -2545,19 +2545,19 @@
         <v>603608</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>564476</v>
+        <v>563712</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>643374</v>
+        <v>644589</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3935535372907252</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3680393282213255</v>
+        <v>0.3675415688022904</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4194815501519543</v>
+        <v>0.4202733224904627</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>465780</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>439754</v>
+        <v>436861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>496370</v>
+        <v>493319</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6147911210982407</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5804392274683302</v>
+        <v>0.5766209477183833</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6551674919295585</v>
+        <v>0.6511399077034925</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>425</v>
@@ -2595,19 +2595,19 @@
         <v>464349</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>433216</v>
+        <v>438993</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>489332</v>
+        <v>492638</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5983006071890998</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5581873652298447</v>
+        <v>0.5656307426377506</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6304909101090593</v>
+        <v>0.6347506731504527</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>852</v>
@@ -2616,19 +2616,19 @@
         <v>930129</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>890363</v>
+        <v>889148</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>969261</v>
+        <v>970025</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6064464627092748</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5805184498480457</v>
+        <v>0.5797266775095372</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6319606717786744</v>
+        <v>0.6324584311977095</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>472945</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>441273</v>
+        <v>441178</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>504004</v>
+        <v>503352</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4990246699832061</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4656062542509447</v>
+        <v>0.465505444169224</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5317966335853529</v>
+        <v>0.5311083163495216</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>485</v>
@@ -2741,19 +2741,19 @@
         <v>508597</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>477310</v>
+        <v>475934</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>540558</v>
+        <v>542025</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4839424432952015</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4541718726437275</v>
+        <v>0.4528633259277155</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5143544653469203</v>
+        <v>0.5157498366773199</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>946</v>
@@ -2762,19 +2762,19 @@
         <v>981542</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>934245</v>
+        <v>934579</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1028524</v>
+        <v>1028419</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4910941581220775</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4674302441773168</v>
+        <v>0.4675971819806808</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5146006560546671</v>
+        <v>0.5145482212184896</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>474794</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>443735</v>
+        <v>444387</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>506466</v>
+        <v>506561</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.500975330016794</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4682033664146473</v>
+        <v>0.4688916836504785</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5343937457490553</v>
+        <v>0.5344945558307763</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>517</v>
@@ -2812,19 +2812,19 @@
         <v>542348</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>510387</v>
+        <v>508920</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>573635</v>
+        <v>575011</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5160575567047985</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4856455346530796</v>
+        <v>0.4842501633226802</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5458281273562725</v>
+        <v>0.5471366740722845</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>966</v>
@@ -2833,19 +2833,19 @@
         <v>1017142</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>970160</v>
+        <v>970265</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1064439</v>
+        <v>1064105</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5089058418779224</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4853993439453329</v>
+        <v>0.4854517787815104</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5325697558226832</v>
+        <v>0.5324028180193192</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1358635</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1298721</v>
+        <v>1296184</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1422966</v>
+        <v>1423122</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3971032046022192</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3795916139937504</v>
+        <v>0.3788499154973507</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4159060776412247</v>
+        <v>0.4159516617265092</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1313</v>
@@ -2958,19 +2958,19 @@
         <v>1415593</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1356906</v>
+        <v>1353373</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1479147</v>
+        <v>1474414</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3984827164994792</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3819625533530212</v>
+        <v>0.3809681368805406</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4163729689347302</v>
+        <v>0.4150405642030029</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2593</v>
@@ -2979,19 +2979,19 @@
         <v>2774228</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2691764</v>
+        <v>2690298</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2860511</v>
+        <v>2862893</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3978059265144636</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3859810807130303</v>
+        <v>0.3857709410091506</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4101783018810876</v>
+        <v>0.4105199054624102</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2062730</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1998399</v>
+        <v>1998243</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2122644</v>
+        <v>2125181</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6028967953977808</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5840939223587753</v>
+        <v>0.5840483382734907</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6204083860062496</v>
+        <v>0.6211500845026493</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1980</v>
@@ -3029,19 +3029,19 @@
         <v>2136865</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2073311</v>
+        <v>2078044</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2195552</v>
+        <v>2199085</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6015172835005208</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5836270310652695</v>
+        <v>0.5849594357969972</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6180374466469786</v>
+        <v>0.6190318631194595</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3904</v>
@@ -3050,19 +3050,19 @@
         <v>4199595</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4113312</v>
+        <v>4110930</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4282059</v>
+        <v>4283525</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6021940734855364</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5898216981189125</v>
+        <v>0.5894800945375898</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6140189192869697</v>
+        <v>0.6142290589908493</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>256358</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>231038</v>
+        <v>232006</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>279866</v>
+        <v>281174</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3799026369632008</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3423794382343248</v>
+        <v>0.3438146247209471</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4147388295164575</v>
+        <v>0.4166772758769098</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>254</v>
@@ -3415,19 +3415,19 @@
         <v>260565</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>235623</v>
+        <v>235808</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>288047</v>
+        <v>288250</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.387261328611394</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3501922324775668</v>
+        <v>0.350466938448629</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4281075417034566</v>
+        <v>0.4284092940208616</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>496</v>
@@ -3436,19 +3436,19 @@
         <v>516923</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>482080</v>
+        <v>481057</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>551600</v>
+        <v>554626</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.38357662882801</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3577221772757838</v>
+        <v>0.3569631042119535</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4093087750885283</v>
+        <v>0.4115536990275013</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>418442</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>394934</v>
+        <v>393626</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>443762</v>
+        <v>442794</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6200973630367992</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5852611704835425</v>
+        <v>0.5833227241230904</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6576205617656753</v>
+        <v>0.6561853752790529</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>412</v>
@@ -3486,19 +3486,19 @@
         <v>412274</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>384792</v>
+        <v>384589</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>437216</v>
+        <v>437031</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.612738671388606</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5718924582965433</v>
+        <v>0.5715907059791384</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6498077675224332</v>
+        <v>0.6495330615513709</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>822</v>
@@ -3507,19 +3507,19 @@
         <v>830716</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>796039</v>
+        <v>793013</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>865559</v>
+        <v>866582</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6164233711719901</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5906912249114717</v>
+        <v>0.5884463009724987</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6422778227242162</v>
+        <v>0.6430368957880465</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>312121</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>281166</v>
+        <v>280155</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>343859</v>
+        <v>340546</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3052737761787149</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2749973739239358</v>
+        <v>0.274008791193955</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3363155373324044</v>
+        <v>0.3330750230557971</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>296</v>
@@ -3632,19 +3632,19 @@
         <v>314462</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>287501</v>
+        <v>286319</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>348638</v>
+        <v>346503</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3015227712643533</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2756710527211329</v>
+        <v>0.274537745040924</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3342921181451075</v>
+        <v>0.3322455303133243</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>589</v>
@@ -3653,19 +3653,19 @@
         <v>626583</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>584860</v>
+        <v>580411</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>670266</v>
+        <v>674897</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3033796743693042</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2831779269768476</v>
+        <v>0.2810238164052534</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3245297601313052</v>
+        <v>0.3267719914412289</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>710310</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>678572</v>
+        <v>681885</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>741265</v>
+        <v>742276</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6947262238212851</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6636844626675954</v>
+        <v>0.6669249769442029</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7250026260760641</v>
+        <v>0.7259912088060452</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>681</v>
@@ -3703,19 +3703,19 @@
         <v>728451</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>694275</v>
+        <v>696410</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>755412</v>
+        <v>756594</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6984772287356467</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6657078818548924</v>
+        <v>0.6677544696866757</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7243289472788669</v>
+        <v>0.7254622549590759</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1339</v>
@@ -3724,19 +3724,19 @@
         <v>1438761</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1395078</v>
+        <v>1390447</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1480484</v>
+        <v>1484933</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6966203256306959</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6754702398686947</v>
+        <v>0.6732280085587713</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7168220730231524</v>
+        <v>0.7189761835947466</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>297460</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>269991</v>
+        <v>269270</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>324839</v>
+        <v>324969</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3916259394633226</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3554614946525829</v>
+        <v>0.354511211205718</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4276719716568546</v>
+        <v>0.4278426175072773</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>290</v>
@@ -3849,19 +3849,19 @@
         <v>309216</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>281979</v>
+        <v>281491</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>337832</v>
+        <v>337989</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3945394289051184</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3597869198873583</v>
+        <v>0.3591633852508773</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4310507915314258</v>
+        <v>0.4312514613675309</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>566</v>
@@ -3870,19 +3870,19 @@
         <v>606677</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>565664</v>
+        <v>564368</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>643775</v>
+        <v>645904</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3931055153126133</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3665304512256901</v>
+        <v>0.3656911576932807</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4171440954761346</v>
+        <v>0.4185235882184775</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>462092</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>434713</v>
+        <v>434583</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>489561</v>
+        <v>490282</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6083740605366774</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5723280283431454</v>
+        <v>0.5721573824927227</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6445385053474172</v>
+        <v>0.6454887887942821</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>445</v>
@@ -3920,19 +3920,19 @@
         <v>474524</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>445908</v>
+        <v>445751</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>501761</v>
+        <v>502249</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6054605710948815</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5689492084685742</v>
+        <v>0.5687485386324697</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6402130801126418</v>
+        <v>0.6408366147491232</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>865</v>
@@ -3941,19 +3941,19 @@
         <v>936615</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>899517</v>
+        <v>897388</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>977628</v>
+        <v>978924</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6068944846873867</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5828559045238652</v>
+        <v>0.5814764117815231</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6334695487743097</v>
+        <v>0.6343088423067196</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>354871</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>323145</v>
+        <v>327921</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>384888</v>
+        <v>383390</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.379014102643516</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3451294534014632</v>
+        <v>0.3502309870343662</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4110730333760158</v>
+        <v>0.4094730201506082</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>373</v>
@@ -4066,19 +4066,19 @@
         <v>412624</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>380943</v>
+        <v>378470</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>447529</v>
+        <v>445465</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3957094688785978</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3653271558713476</v>
+        <v>0.3629553766030388</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4291843288279079</v>
+        <v>0.4272045488139519</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>717</v>
@@ -4087,19 +4087,19 @@
         <v>767495</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>723062</v>
+        <v>722099</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>810009</v>
+        <v>810385</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3878107720785939</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3653593842381279</v>
+        <v>0.3648723898971452</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4092930298826031</v>
+        <v>0.4094830000102566</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>581429</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>551412</v>
+        <v>552910</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>613155</v>
+        <v>608379</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6209858973564839</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5889269666239842</v>
+        <v>0.5905269798493918</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6548705465985368</v>
+        <v>0.6497690129656338</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>585</v>
@@ -4137,19 +4137,19 @@
         <v>630120</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>595215</v>
+        <v>597279</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>661801</v>
+        <v>664274</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6042905311214022</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5708156711720923</v>
+        <v>0.5727954511860482</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6346728441286527</v>
+        <v>0.6370446233969612</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1172</v>
@@ -4158,19 +4158,19 @@
         <v>1211549</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1169035</v>
+        <v>1168659</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1255982</v>
+        <v>1256945</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6121892279214061</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5907069701173969</v>
+        <v>0.5905169999897433</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6346406157618719</v>
+        <v>0.6351276101028545</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1220811</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1159393</v>
+        <v>1162998</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1278340</v>
+        <v>1273123</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3597939833130324</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3416930709360902</v>
+        <v>0.3427556206614477</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.376748923100042</v>
+        <v>0.3752113350045632</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1213</v>
@@ -4283,19 +4283,19 @@
         <v>1296867</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1234767</v>
+        <v>1244425</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1353218</v>
+        <v>1360797</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3661152302898898</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.348583962360794</v>
+        <v>0.3513104935364176</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3820237300248164</v>
+        <v>0.384163173848027</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2368</v>
@@ -4304,19 +4304,19 @@
         <v>2517677</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2438256</v>
+        <v>2439942</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2601906</v>
+        <v>2609166</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3630225800516403</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3515708194827089</v>
+        <v>0.3518139525961006</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3751675012593411</v>
+        <v>0.3762142398203986</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2172272</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2114743</v>
+        <v>2119960</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2233690</v>
+        <v>2230085</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6402060166869676</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.623251076899958</v>
+        <v>0.6247886649954368</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6583069290639098</v>
+        <v>0.6572443793385525</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2123</v>
@@ -4354,19 +4354,19 @@
         <v>2245369</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2189018</v>
+        <v>2181439</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2307469</v>
+        <v>2297811</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6338847697101102</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6179762699751834</v>
+        <v>0.615836826151972</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.651416037639206</v>
+        <v>0.6486895064635818</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4198</v>
@@ -4375,19 +4375,19 @@
         <v>4417642</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4333413</v>
+        <v>4326153</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4497063</v>
+        <v>4495377</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6369774199483598</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6248324987406589</v>
+        <v>0.6237857601796013</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6484291805172911</v>
+        <v>0.6481860474038994</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>48946</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35004</v>
+        <v>34394</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66275</v>
+        <v>66013</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07086305563063129</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05067860826835767</v>
+        <v>0.04979442312344552</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09595244279175333</v>
+        <v>0.09557207829061093</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>77</v>
@@ -4740,19 +4740,19 @@
         <v>47321</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37298</v>
+        <v>37239</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59847</v>
+        <v>61344</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06445433675468798</v>
+        <v>0.06445433675468797</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05080216517780613</v>
+        <v>0.05072208314768913</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08151560359582291</v>
+        <v>0.08355458806113845</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>128</v>
@@ -4761,19 +4761,19 @@
         <v>96267</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79626</v>
+        <v>78067</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>118577</v>
+        <v>118504</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06756093822126917</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05588205076746289</v>
+        <v>0.05478807645131402</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08321863874215418</v>
+        <v>0.08316746006721129</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>641764</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>624435</v>
+        <v>624697</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>655706</v>
+        <v>656316</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9291369443693687</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9040475572082466</v>
+        <v>0.9044279217093895</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9493213917316423</v>
+        <v>0.950205576876555</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1164</v>
@@ -4811,19 +4811,19 @@
         <v>686859</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>674333</v>
+        <v>672836</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>696882</v>
+        <v>696941</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.935545663245312</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9184843964041765</v>
+        <v>0.9164454119388615</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9491978348221936</v>
+        <v>0.949277916852311</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1843</v>
@@ -4832,19 +4832,19 @@
         <v>1328622</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1306312</v>
+        <v>1306385</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1345263</v>
+        <v>1346822</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9324390617787309</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9167813612578457</v>
+        <v>0.9168325399327888</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9441179492325376</v>
+        <v>0.945211923548686</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>122556</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>101760</v>
+        <v>101657</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>145198</v>
+        <v>148550</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1168407155915947</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09701433351562443</v>
+        <v>0.09691573842334489</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1384267347049714</v>
+        <v>0.1416224314492771</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>193</v>
@@ -4957,19 +4957,19 @@
         <v>151956</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>131050</v>
+        <v>131942</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>175188</v>
+        <v>173946</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1419100713031572</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1223860486373318</v>
+        <v>0.1232191053716543</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1636068685679627</v>
+        <v>0.1624469519950769</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>309</v>
@@ -4978,19 +4978,19 @@
         <v>274512</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>243169</v>
+        <v>245398</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>309598</v>
+        <v>307697</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1295047307445369</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1147181676982624</v>
+        <v>0.1157699795078403</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1460571250875052</v>
+        <v>0.1451600865480904</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>926361</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>903719</v>
+        <v>900367</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>947157</v>
+        <v>947260</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8831592844084054</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8615732652950286</v>
+        <v>0.858377568550723</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9029856664843755</v>
+        <v>0.9030842615766552</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1323</v>
@@ -5028,19 +5028,19 @@
         <v>918833</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>895601</v>
+        <v>896843</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>939739</v>
+        <v>938847</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.858089928696843</v>
+        <v>0.8580899286968428</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8363931314320373</v>
+        <v>0.8375530480049223</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8776139513626681</v>
+        <v>0.8767808946283456</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2171</v>
@@ -5049,19 +5049,19 @@
         <v>1845194</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1810108</v>
+        <v>1812009</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1876537</v>
+        <v>1874308</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8704952692554631</v>
+        <v>0.8704952692554632</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8539428749124948</v>
+        <v>0.8548399134519098</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8852818323017376</v>
+        <v>0.8842300204921592</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>151732</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>129001</v>
+        <v>127753</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>180622</v>
+        <v>180210</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1892169190449388</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1608707004286116</v>
+        <v>0.1593136914510912</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2252433694766965</v>
+        <v>0.2247306895575322</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>193</v>
@@ -5174,19 +5174,19 @@
         <v>157028</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>136371</v>
+        <v>136842</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>180172</v>
+        <v>177352</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1933228886139212</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1678911340170689</v>
+        <v>0.1684714922856566</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2218159482776965</v>
+        <v>0.2183440368629402</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>318</v>
@@ -5195,19 +5195,19 @@
         <v>308760</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>275891</v>
+        <v>274810</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>344278</v>
+        <v>346186</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.191283084928993</v>
+        <v>0.1912830849289931</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1709199601394204</v>
+        <v>0.1702500102960149</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2132871580113934</v>
+        <v>0.2144687795343654</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>650163</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>621273</v>
+        <v>621685</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>672894</v>
+        <v>674142</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8107830809550614</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7747566305233035</v>
+        <v>0.7752693104424681</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8391292995713877</v>
+        <v>0.8406863085489089</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>854</v>
@@ -5245,19 +5245,19 @@
         <v>655231</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>632087</v>
+        <v>634907</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>675888</v>
+        <v>675417</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8066771113860788</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7781840517223034</v>
+        <v>0.7816559631370602</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8321088659829311</v>
+        <v>0.8315285077143435</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1404</v>
@@ -5266,19 +5266,19 @@
         <v>1305394</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1269876</v>
+        <v>1267968</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1338263</v>
+        <v>1339344</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.808716915071007</v>
+        <v>0.8087169150710071</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7867128419886066</v>
+        <v>0.7855312204656347</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8290800398605797</v>
+        <v>0.8297499897039852</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>331759</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>297693</v>
+        <v>302341</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>363572</v>
+        <v>367114</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3354679066106598</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3010209856684457</v>
+        <v>0.3057209814387743</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3676367960822911</v>
+        <v>0.3712186783772212</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>539</v>
@@ -5391,19 +5391,19 @@
         <v>405002</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>376454</v>
+        <v>376641</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>434549</v>
+        <v>433764</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3621599176579263</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3366317782712197</v>
+        <v>0.336799060251801</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.388582151260291</v>
+        <v>0.3878800056278119</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>858</v>
@@ -5412,19 +5412,19 @@
         <v>736761</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>695936</v>
+        <v>695572</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>779896</v>
+        <v>779493</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3496331425629012</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3302595453909821</v>
+        <v>0.3300867403153001</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3701032858193747</v>
+        <v>0.3699116813058636</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>657185</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>625372</v>
+        <v>621830</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>691251</v>
+        <v>686603</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6645320933893401</v>
+        <v>0.6645320933893402</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6323632039177089</v>
+        <v>0.6287813216227788</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6989790143315542</v>
+        <v>0.694279018561226</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1022</v>
@@ -5462,19 +5462,19 @@
         <v>713293</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>683746</v>
+        <v>684531</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>741841</v>
+        <v>741654</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6378400823420736</v>
+        <v>0.6378400823420737</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6114178487397088</v>
+        <v>0.6121199943721874</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6633682217287804</v>
+        <v>0.663200939748199</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1708</v>
@@ -5483,19 +5483,19 @@
         <v>1370479</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1327344</v>
+        <v>1327747</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1411304</v>
+        <v>1411668</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6503668574370988</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6298967141806253</v>
+        <v>0.6300883186941364</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6697404546090179</v>
+        <v>0.6699132596847001</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>654993</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>607380</v>
+        <v>606166</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>709245</v>
+        <v>707165</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.185525993023515</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1720396067193689</v>
+        <v>0.1716956382849639</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2008927390841384</v>
+        <v>0.2003036316083793</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1002</v>
@@ -5608,19 +5608,19 @@
         <v>761307</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>719517</v>
+        <v>720178</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>807557</v>
+        <v>811051</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2038019172690924</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1926147194750338</v>
+        <v>0.1927916764846581</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2161832289214521</v>
+        <v>0.2171185912273697</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1613</v>
@@ -5629,19 +5629,19 @@
         <v>1416300</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1347495</v>
+        <v>1346329</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1493304</v>
+        <v>1486056</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1949218412681347</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1854523332959428</v>
+        <v>0.1852919334136349</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2055197286570746</v>
+        <v>0.204522147321166</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2875473</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2821221</v>
+        <v>2823301</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2923086</v>
+        <v>2924300</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.814474006976485</v>
+        <v>0.8144740069764851</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7991072609158616</v>
+        <v>0.7996963683916208</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8279603932806313</v>
+        <v>0.8283043617150361</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4363</v>
@@ -5679,19 +5679,19 @@
         <v>2974216</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2927966</v>
+        <v>2924472</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3016006</v>
+        <v>3015345</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7961980827309078</v>
+        <v>0.7961980827309075</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7838167710785476</v>
+        <v>0.7828814087726303</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8073852805249661</v>
+        <v>0.8072083235153419</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7126</v>
@@ -5700,19 +5700,19 @@
         <v>5849689</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5772685</v>
+        <v>5779933</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5918494</v>
+        <v>5919660</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8050781587318654</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7944802713429255</v>
+        <v>0.7954778526788339</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8145476667040572</v>
+        <v>0.814708066586365</v>
       </c>
     </row>
     <row r="18">
